--- a/Documentos/buenaFe/Lista Buena Fe Voley.xlsx
+++ b/Documentos/buenaFe/Lista Buena Fe Voley.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B89B0A8-39B8-42BF-891C-4804510584DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB04DC9-7C52-43F1-97E9-61ED31B8F438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,12 +19,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>"COPA CORRIENTES DIVERSA"</t>
   </si>
@@ -85,32 +81,6 @@
     <t>LISTADO DE BUENA FE CUERPO TÉCNICO</t>
   </si>
   <si>
-    <t xml:space="preserve">(*) EN CASO LLUEVA, LOS PARTIDOS DE LA CANCHA DESCUBIERTA PASARÍAN A LA CUBIERTA, EXTENDIÉNDOSE O MODIFICANDÓSE </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EL CRONOGRAMA (**) MÍNIMO DE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Merriweather"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Merriweather"/>
-      </rPr>
-      <t xml:space="preserve"> PERSONAS PARA INSCRIBIRSE. EL D. T. DEBE ESTAR DENTRO DEL LISTADO DE BUENA FE</t>
-    </r>
-  </si>
-  <si>
     <t>Les presentes en este listado -jugadores- se encuentran aptos para realizar actividad física acorde a la intensidad</t>
   </si>
   <si>
@@ -121,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,12 +137,6 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Merriweather"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Merriweather"/>
     </font>
@@ -541,7 +505,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -564,43 +528,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,22 +591,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -658,77 +622,77 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -856,13 +820,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>420085</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>113579</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -947,7 +911,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B18:F33" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B18:F35" headerRowDxfId="2">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Orden" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="APELLIDOS" dataDxfId="0"/>
@@ -960,9 +924,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1000,9 +964,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1035,9 +999,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1070,9 +1051,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1249,13 +1247,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
@@ -1341,20 +1339,20 @@
       <c r="A8" s="11"/>
       <c r="B8" s="36"/>
       <c r="C8" s="70"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="36"/>
       <c r="C9" s="61"/>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
@@ -1588,7 +1586,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="26">
+      <c r="B30" s="17">
         <v>12</v>
       </c>
       <c r="C30" s="16"/>
@@ -1599,126 +1597,138 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="22"/>
+      <c r="B31" s="17">
+        <v>13</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="21">
-        <v>1</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="18"/>
+      <c r="B32" s="26">
+        <v>14</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="17">
-        <v>2</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
+      <c r="B34" s="21">
+        <v>1</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="B35" s="17">
+        <v>2</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="E36" s="2"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="2"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A38" s="6"/>
+      <c r="A38" s="11"/>
       <c r="E38" s="2"/>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="6"/>
+      <c r="B39" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="6"/>
+      <c r="E40" s="2"/>
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="2"/>
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="6"/>
-      <c r="E42" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
+      <c r="E43" s="9"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="34.5" customHeight="1">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="4"/>
-      <c r="E45" s="2"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1">
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A45" s="6"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A47" s="4"/>
       <c r="E47" s="2"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="E48" s="2"/>
@@ -2281,17 +2291,23 @@
     <row r="234" spans="5:5" ht="15.75" customHeight="1">
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="5:5" ht="15.75" customHeight="1"/>
+    <row r="235" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="5:5" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B46:F46"/>
     <mergeCell ref="B3:F4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B5:F6"/>
-    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B45:F45"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B36:F36"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
@@ -2311,7 +2327,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
